--- a/Sufficient data/forecast_summary_B09SBV8M5F.xlsx
+++ b/Sufficient data/forecast_summary_B09SBV8M5F.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>3</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D16" t="n">
         <v>5</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D17" t="n">
         <v>5</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>737</t>
+          <t>736</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>172</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>46</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>93</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
